--- a/data_voor_swing/gebiedsdefinities/politiezone.xlsx
+++ b/data_voor_swing/gebiedsdefinities/politiezone.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ipz7</t>
+          <t>ipz52</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PZ Grens</t>
+          <t>PZ Getevallei</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PZ Grens</t>
+          <t>PZ Getevallei</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ipz66</t>
+          <t>ipz7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PZ Grensleie</t>
+          <t>PZ Grens</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PZ Grensleie</t>
+          <t>PZ Grens</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ipz35</t>
+          <t>ipz66</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PZ Grimbergen</t>
+          <t>PZ Grensleie</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PZ Grimbergen</t>
+          <t>PZ Grensleie</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ipz49</t>
+          <t>ipz35</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PZ Haacht</t>
+          <t>PZ Grimbergen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PZ Haacht</t>
+          <t>PZ Grimbergen</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ipz46</t>
+          <t>ipz49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PZ Hageland</t>
+          <t>PZ Haacht</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PZ Hageland</t>
+          <t>PZ Haacht</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ipz83</t>
+          <t>ipz46</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PZ Hamme - Waasmunster</t>
+          <t>PZ Hageland</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PZ Hamme - Waasmunster</t>
+          <t>PZ Hageland</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ipz110</t>
+          <t>ipz83</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PZ Hano</t>
+          <t>PZ Hamme - Waasmunster</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PZ Hano</t>
+          <t>PZ Hamme - Waasmunster</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ipz15</t>
+          <t>ipz110</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PZ Heist</t>
+          <t>PZ Hano</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PZ Heist</t>
+          <t>PZ Hano</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ipz1</t>
+          <t>ipz15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PZ Hekla</t>
+          <t>PZ Heist</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PZ Hekla</t>
+          <t>PZ Heist</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ipz51</t>
+          <t>ipz1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PZ Herko</t>
+          <t>PZ Hekla</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PZ Herko</t>
+          <t>PZ Hekla</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ipz55</t>
+          <t>ipz51</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PZ Het Houtsche</t>
+          <t>PZ Herko</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PZ Het Houtsche</t>
+          <t>PZ Herko</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ipz107</t>
+          <t>ipz55</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PZ Heusden - Zolder</t>
+          <t>PZ Het Houtsche</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PZ Heusden - Zolder</t>
+          <t>PZ Het Houtsche</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ipz38</t>
+          <t>ipz107</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PZ K - L - M</t>
+          <t>PZ Heusden - Zolder</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PZ K - L - M</t>
+          <t>PZ Heusden - Zolder</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ipz111</t>
+          <t>ipz38</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PZ Kanton Borgloon</t>
+          <t>PZ K - L - M</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PZ Kanton Borgloon</t>
+          <t>PZ K - L - M</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ipz37</t>
+          <t>ipz111</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PZ Kastze</t>
+          <t>PZ Kanton Borgloon</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PZ Kastze</t>
+          <t>PZ Kanton Borgloon</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ipz18</t>
+          <t>ipz37</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PZ Kempen N-O</t>
+          <t>PZ Kastze</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PZ Kempen N-O</t>
+          <t>PZ Kastze</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ipz106</t>
+          <t>ipz18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PZ Kempenland</t>
+          <t>PZ Kempen N-O</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PZ Kempenland</t>
+          <t>PZ Kempen N-O</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ipz14</t>
+          <t>ipz106</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PZ Klein-Brabant</t>
+          <t>PZ Kempenland</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PZ Klein-Brabant</t>
+          <t>PZ Kempenland</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ipz53</t>
+          <t>ipz114</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PZ Lan</t>
+          <t>PZ Lanaken - Maasmechelen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PZ Lan</t>
+          <t>PZ Lanaken - Maasmechelen</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ipz114</t>
+          <t>ipz54</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PZ Lanaken - Maasmechelen</t>
+          <t>PZ Leuven</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PZ Lanaken - Maasmechelen</t>
+          <t>PZ Leuven</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ipz54</t>
+          <t>ipz16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PZ Leuven</t>
+          <t>PZ Lier</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PZ Leuven</t>
+          <t>PZ Lier</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ipz16</t>
+          <t>ipz104</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PZ Lier</t>
+          <t>PZ Limburg Regio Hoofdstad</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PZ Lier</t>
+          <t>PZ Limburg Regio Hoofdstad</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ipz104</t>
+          <t>ipz100</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PZ Limburg Regio Hoofdstad</t>
+          <t>PZ Lokeren</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PZ Limburg Regio Hoofdstad</t>
+          <t>PZ Lokeren</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ipz100</t>
+          <t>ipz108</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PZ Lokeren</t>
+          <t>PZ Lommel</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PZ Lokeren</t>
+          <t>PZ Lommel</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ipz108</t>
+          <t>ipz109</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PZ Lommel</t>
+          <t>PZ Maasland</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PZ Lommel</t>
+          <t>PZ Maasland</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ipz109</t>
+          <t>ipz87</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PZ Maasland</t>
+          <t>PZ Maldegem</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PZ Maasland</t>
+          <t>PZ Maldegem</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ipz87</t>
+          <t>ipz86</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PZ Maldegem</t>
+          <t>PZ Meetjesland Centrum</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PZ Maldegem</t>
+          <t>PZ Meetjesland Centrum</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ipz17</t>
+          <t>ipz68</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PZ Mechelen - Willebroek</t>
+          <t>PZ Middelkerke</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PZ Mechelen - Willebroek</t>
+          <t>PZ Middelkerke</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ipz86</t>
+          <t>ipz71</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PZ Meetjesland Centrum</t>
+          <t>PZ Midow</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PZ Meetjesland Centrum</t>
+          <t>PZ Midow</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ipz68</t>
+          <t>ipz3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PZ Middelkerke</t>
+          <t>PZ Minos</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PZ Middelkerke</t>
+          <t>PZ Minos</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ipz71</t>
+          <t>ipz63</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PZ Midow</t>
+          <t>PZ Mira</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PZ Midow</t>
+          <t>PZ Mira</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ipz3</t>
+          <t>ipz29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PZ Minos</t>
+          <t>PZ Montgomery</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PZ Minos</t>
+          <t>PZ Montgomery</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ipz63</t>
+          <t>ipz22</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PZ Mira</t>
+          <t>PZ Neteland</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PZ Mira</t>
+          <t>PZ Neteland</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ipz29</t>
+          <t>ipz79</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PZ Montgomery</t>
+          <t>PZ Ninove</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PZ Montgomery</t>
+          <t>PZ Ninove</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ipz22</t>
+          <t>ipz8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PZ Neteland</t>
+          <t>PZ Noord</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PZ Neteland</t>
+          <t>PZ Noord</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ipz79</t>
+          <t>ipz24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PZ Ninove</t>
+          <t>PZ Noorderkempen</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PZ Ninove</t>
+          <t>PZ Noorderkempen</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ipz8</t>
+          <t>ipz69</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PZ Noord</t>
+          <t>PZ Oostende</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PZ Noord</t>
+          <t>PZ Oostende</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ipz24</t>
+          <t>ipz33</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PZ Noorderkempen</t>
+          <t>PZ Pajottenland</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PZ Noorderkempen</t>
+          <t>PZ Pajottenland</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ipz69</t>
+          <t>ipz60</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PZ Oostende</t>
+          <t>PZ Polder</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PZ Oostende</t>
+          <t>PZ Polder</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ipz33</t>
+          <t>ipz9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PZ Pajottenland</t>
+          <t>PZ Ranst - Zandhoven</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PZ Pajottenland</t>
+          <t>PZ Ranst - Zandhoven</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ipz60</t>
+          <t>ipz88</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PZ Polder</t>
+          <t>PZ Regio Puyenbroeck</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PZ Polder</t>
+          <t>PZ Regio Puyenbroeck</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ipz9</t>
+          <t>ipz92</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PZ Ranst - Zandhoven</t>
+          <t>PZ Regio Rhode en Schelde</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PZ Ranst - Zandhoven</t>
+          <t>PZ Regio Rhode en Schelde</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ipz88</t>
+          <t>ipz72</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PZ Regio Puyenbroeck</t>
+          <t>PZ Regio Tielt</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PZ Regio Puyenbroeck</t>
+          <t>PZ Regio Tielt</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ipz92</t>
+          <t>ipz19</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PZ Regio Rhode en Schelde</t>
+          <t>PZ Regio Turnhout</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PZ Regio Rhode en Schelde</t>
+          <t>PZ Regio Turnhout</t>
         </is>
       </c>
     </row>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ipz72</t>
+          <t>ipz70</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PZ Regio Tielt</t>
+          <t>PZ Riho</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PZ Regio Tielt</t>
+          <t>PZ Riho</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ipz19</t>
+          <t>ipz14</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PZ Regio Turnhout</t>
+          <t>PZ Rivierenland</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PZ Regio Turnhout</t>
+          <t>PZ Rivierenland</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ipz70</t>
+          <t>ipz42</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PZ Riho</t>
+          <t>PZ Rode</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PZ Riho</t>
+          <t>PZ Rode</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ipz42</t>
+          <t>ipz96</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PZ Rode</t>
+          <t>PZ Ronse</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PZ Rode</t>
+          <t>PZ Ronse</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ipz96</t>
+          <t>ipz4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PZ Ronse</t>
+          <t>PZ Rupel</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PZ Ronse</t>
+          <t>PZ Rupel</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ipz4</t>
+          <t>ipz30</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PZ Rupel</t>
+          <t>PZ Schaarbeek - St.Joost - Evere</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PZ Rupel</t>
+          <t>PZ Schaarbeek - St.Joost - Evere</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ipz30</t>
+          <t>ipz91</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PZ Schaarbeek - St.Joost - Evere</t>
+          <t>PZ Schelde - Leie</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PZ Schaarbeek - St.Joost - Evere</t>
+          <t>PZ Schelde - Leie</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ipz91</t>
+          <t>ipz10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PZ Schelde - Leie</t>
+          <t>PZ Schoten</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PZ Schelde - Leie</t>
+          <t>PZ Schoten</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ipz10</t>
+          <t>ipz101</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PZ Schoten</t>
+          <t>PZ Sint-Niklaas</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PZ Schoten</t>
+          <t>PZ Sint-Niklaas</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ipz101</t>
+          <t>ipz105</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PZ Sint-Niklaas</t>
+          <t>PZ Sint-Truiden - Gingelom - Nieuwerkerken</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PZ Sint-Niklaas</t>
+          <t>PZ Sint-Truiden - Gingelom - Nieuwerkerken</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ipz105</t>
+          <t>ipz61</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PZ Sint-Truiden - Gingelom - Nieuwerkerken</t>
+          <t>PZ Spoorkin</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PZ Sint-Truiden - Gingelom - Nieuwerkerken</t>
+          <t>PZ Spoorkin</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ipz61</t>
+          <t>ipz39</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PZ Spoorkin</t>
+          <t>PZ Tarl</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PZ Spoorkin</t>
+          <t>PZ Tarl</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ipz39</t>
+          <t>ipz113</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PZ Tarl</t>
+          <t>PZ Tongeren - Herstappe</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PZ Tarl</t>
+          <t>PZ Tongeren - Herstappe</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ipz52</t>
+          <t>ipz26</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PZ Tienen - Hoegaarden</t>
+          <t>PZ Ukkel - W-B - Oudergem</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PZ Tienen - Hoegaarden</t>
+          <t>PZ Ukkel - W-B - Oudergem</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2336,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ipz113</t>
+          <t>ipz40</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PZ Tongeren - Herstappe</t>
+          <t>PZ Vilvoorde - Machelen</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PZ Tongeren - Herstappe</t>
+          <t>PZ Vilvoorde - Machelen</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ipz26</t>
+          <t>ipz95</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PZ Ukkel - W-B - Oudergem</t>
+          <t>PZ Vlaamse Ardennen</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PZ Ukkel - W-B - Oudergem</t>
+          <t>PZ Vlaamse Ardennen</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ipz40</t>
+          <t>ipz65</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PZ Vilvoorde - Machelen</t>
+          <t>PZ Vlas</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PZ Vilvoorde - Machelen</t>
+          <t>PZ Vlas</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ipz95</t>
+          <t>ipz47</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PZ Vlaamse Ardennen</t>
+          <t>PZ Voer en Dijle</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PZ Vlaamse Ardennen</t>
+          <t>PZ Voer en Dijle</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ipz65</t>
+          <t>ipz115</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PZ Vlas</t>
+          <t>PZ Voeren</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PZ Vlas</t>
+          <t>PZ Voeren</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ipz47</t>
+          <t>ipz6</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PZ Voer en Dijle</t>
+          <t>PZ Voorkempen</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PZ Voer en Dijle</t>
+          <t>PZ Voorkempen</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ipz115</t>
+          <t>ipz98</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PZ Voeren</t>
+          <t>PZ Waasland-Noord</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PZ Voeren</t>
+          <t>PZ Waasland-Noord</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ipz6</t>
+          <t>ipz73</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PZ Voorkempen</t>
+          <t>PZ Westkust</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PZ Voorkempen</t>
+          <t>PZ Westkust</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ipz98</t>
+          <t>ipz84</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PZ Waasland-Noord</t>
+          <t>PZ Wetteren - Laarne - Wichelen</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PZ Waasland-Noord</t>
+          <t>PZ Wetteren - Laarne - Wichelen</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ipz73</t>
+          <t>ipz43</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PZ Westkust</t>
+          <t>PZ Wokra</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PZ Westkust</t>
+          <t>PZ Wokra</t>
         </is>
       </c>
     </row>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ipz84</t>
+          <t>ipz41</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PZ Wetteren - Laarne - Wichelen</t>
+          <t>PZ Zaventem</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PZ Wetteren - Laarne - Wichelen</t>
+          <t>PZ Zaventem</t>
         </is>
       </c>
     </row>
@@ -2556,17 +2556,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ipz43</t>
+          <t>ipz32</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PZ Wokra</t>
+          <t>PZ Zennevallei</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PZ Wokra</t>
+          <t>PZ Zennevallei</t>
         </is>
       </c>
     </row>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ipz41</t>
+          <t>ipz77</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PZ Zaventem</t>
+          <t>PZ Zottegem - Herzele -  St.L.Houtem</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>PZ Zaventem</t>
+          <t>PZ Zottegem - Herzele -  St.L.Houtem</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ipz32</t>
+          <t>ipz25</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PZ Zennevallei</t>
+          <t>PZ Zuid</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PZ Zennevallei</t>
+          <t>PZ Zuid</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ipz77</t>
+          <t>ipz23</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PZ Zottegem - Herzele -  St.L.Houtem</t>
+          <t>PZ Zuiderkempen</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PZ Zottegem - Herzele -  St.L.Houtem</t>
+          <t>PZ Zuiderkempen</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ipz25</t>
+          <t>ipz11</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PZ Zuid</t>
+          <t>PZ Zwijndrecht</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PZ Zuid</t>
+          <t>PZ Zwijndrecht</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ipz23</t>
+          <t>ipz999</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PZ Zuiderkempen</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PZ Zuiderkempen</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ipz11</t>
+          <t>ipz992</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PZ Zwijndrecht</t>
+          <t>Politiezone onbekend (Brussel)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PZ Zwijndrecht</t>
+          <t>Politiezone onbekend (Brussel)</t>
         </is>
       </c>
     </row>
@@ -2696,55 +2696,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ipz999</t>
+          <t>ipz991</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Buiten Vlaanderen en Brussel</t>
+          <t>Politiezone onbekend (Vlaanderen)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
-        <is>
-          <t>Buiten Vlaanderen en Brussel</t>
-        </is>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="0" outlineLevel="0">
-      <c r="A117" s="23">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ipz992</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Politiezone onbekend (Brussel)</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Politiezone onbekend (Brussel)</t>
-        </is>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="0" outlineLevel="0">
-      <c r="A118" s="23">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ipz991</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Politiezone onbekend (Vlaanderen)</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
         <is>
           <t>Politiezone onbekend (Vlaanderen)</t>
         </is>

--- a/data_voor_swing/gebiedsdefinities/politiezone.xlsx
+++ b/data_voor_swing/gebiedsdefinities/politiezone.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ipz992</t>
+          <t>ipz993</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Politiezone onbekend (Brussel)</t>
+          <t>Politiezone onbekend</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Politiezone onbekend (Brussel)</t>
+          <t>Politiezone onbekend</t>
         </is>
       </c>
     </row>
@@ -2696,15 +2696,35 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>ipz992</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Politiezone onbekend (Brussel)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Politiezone onbekend (Brussel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="0" outlineLevel="0">
+      <c r="A117" s="23">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>ipz991</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Politiezone onbekend (Vlaanderen)</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Politiezone onbekend (Vlaanderen)</t>
         </is>

--- a/data_voor_swing/gebiedsdefinities/politiezone.xlsx
+++ b/data_voor_swing/gebiedsdefinities/politiezone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\gebiedsdefinities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7F073-B0CE-46C6-92E8-AD53FEFDEE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E45F96-6D84-49DF-AB7E-948DCC904B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="politiezone" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="226">
   <si>
     <t>ipz74</t>
   </si>
@@ -112,12 +112,6 @@
     <t>PZ Bodukap</t>
   </si>
   <si>
-    <t>ipz97</t>
-  </si>
-  <si>
-    <t>PZ Brakel</t>
-  </si>
-  <si>
     <t>ipz5</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
     <t>PZ Hano</t>
   </si>
   <si>
+    <t>ipz111</t>
+  </si>
+  <si>
+    <t>PZ Haspengouw</t>
+  </si>
+  <si>
     <t>ipz15</t>
   </si>
   <si>
@@ -322,12 +322,6 @@
     <t>PZ K - L - M</t>
   </si>
   <si>
-    <t>ipz111</t>
-  </si>
-  <si>
-    <t>PZ Kanton Borgloon</t>
-  </si>
-  <si>
     <t>ipz37</t>
   </si>
   <si>
@@ -352,12 +346,6 @@
     <t>PZ Kouter</t>
   </si>
   <si>
-    <t>ipz99</t>
-  </si>
-  <si>
-    <t>PZ Kruibeke - Temse</t>
-  </si>
-  <si>
     <t>ipz114</t>
   </si>
   <si>
@@ -550,6 +538,12 @@
     <t>PZ Schelde - Leie</t>
   </si>
   <si>
+    <t>ipz98</t>
+  </si>
+  <si>
+    <t>PZ Scheldewaas</t>
+  </si>
+  <si>
     <t>ipz10</t>
   </si>
   <si>
@@ -580,12 +574,6 @@
     <t>PZ Tarl</t>
   </si>
   <si>
-    <t>ipz113</t>
-  </si>
-  <si>
-    <t>PZ Tongeren - Herstappe</t>
-  </si>
-  <si>
     <t>ipz26</t>
   </si>
   <si>
@@ -628,12 +616,6 @@
     <t>PZ Voorkempen</t>
   </si>
   <si>
-    <t>ipz98</t>
-  </si>
-  <si>
-    <t>PZ Waasland-Noord</t>
-  </si>
-  <si>
     <t>ipz73</t>
   </si>
   <si>
@@ -682,12 +664,6 @@
     <t>PZ Zuiderkempen</t>
   </si>
   <si>
-    <t>ipz11</t>
-  </si>
-  <si>
-    <t>PZ Zwijndrecht</t>
-  </si>
-  <si>
     <t>ipz999</t>
   </si>
   <si>
@@ -712,16 +688,16 @@
     <t>Politiezone onbekend (Vlaanderen)</t>
   </si>
   <si>
-    <t>sequencenr</t>
-  </si>
-  <si>
-    <t>geoitem code</t>
-  </si>
-  <si>
-    <t>short name</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>volgnr</t>
+  </si>
+  <si>
+    <t>gebiedscode</t>
+  </si>
+  <si>
+    <t>naam_kort</t>
+  </si>
+  <si>
+    <t>naam</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1074,16 +1050,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,62 +2614,6 @@
       </c>
       <c r="D112" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" t="s">
-        <v>229</v>
-      </c>
-      <c r="D116" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
